--- a/medicine/Sexualité et sexologie/Seedbed/Seedbed.xlsx
+++ b/medicine/Sexualité et sexologie/Seedbed/Seedbed.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Seedbed est une performance interprétée pour la première fois par Vito Acconci du 15 au 29 janvier 1972 à la Sonnabend Gallery de New York.
@@ -512,11 +524,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans la pièce, il y a une rampe basse en bois se confondant avec le sol. La rampe s'étend sur toute la largeur de la pièce, commençant à deux pieds sur le côté d'un mur et s'inclinant jusqu'au milieu du sol.
-Dans sa performance originale de la pièce, Acconci est caché sous la rampe installée à la galerie Sonnabend, se masturbant. Les fantasmes parlés de l'artiste sur les visiteurs marchant au-dessus sont entendus par des haut-parleurs dans la galerie[1].
-En 2013, Dale Eisinger de Complex a classé Seedbed au 22e rang des meilleures œuvres de l'art de la performance de l'histoire[2].
+Dans sa performance originale de la pièce, Acconci est caché sous la rampe installée à la galerie Sonnabend, se masturbant. Les fantasmes parlés de l'artiste sur les visiteurs marchant au-dessus sont entendus par des haut-parleurs dans la galerie.
+En 2013, Dale Eisinger de Complex a classé Seedbed au 22e rang des meilleures œuvres de l'art de la performance de l'histoire.
 </t>
         </is>
       </c>
@@ -545,9 +559,11 @@
           <t>Reprises</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Marina Abramović a interprété Seedbed dans le cadre de ses Seven Easy Pieces en 2005[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Marina Abramović a interprété Seedbed dans le cadre de ses Seven Easy Pieces en 2005.
 </t>
         </is>
       </c>
